--- a/biology/Mycologie/Flammulina_velutipes/Flammulina_velutipes.xlsx
+++ b/biology/Mycologie/Flammulina_velutipes/Flammulina_velutipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flammulina velutipes est un champignon comestible de la famille des Physalacriaceae, appelé communément « collybie à pied velouté » ou désigné par son nom japonais  de « enokitaké ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau plat de 5-10 cm, visqueux, jaune orangé à fauvâtre vif.
 Lames larges, peu serrées, crème ochracé.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur bois mort de feuillus (en particulier de Salix, Fagus et Alnus), parfois sur arbres vivants et affaiblis, en hiver. En bouquets.
 </t>
@@ -577,9 +593,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est cultivé en Chine, en Corée et au Japon[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est cultivé en Chine, en Corée et au Japon.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agaricus velutipes Curtis</t>
         </is>
